--- a/2025年生肖属相年份年龄（周岁）对照表.xlsx
+++ b/2025年生肖属相年份年龄（周岁）对照表.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
-    <t>2025 年生肖属相年份年龄（周岁）对照表</t>
+    <t>2025 年（乙巳蛇年）生肖属相年份与年龄（周岁）对照表</t>
   </si>
   <si>
     <t>属相</t>
@@ -41,40 +41,52 @@
     <t>年龄</t>
   </si>
   <si>
-    <t>子鼠</t>
+    <t>子 鼠
+🐀</t>
   </si>
   <si>
-    <t>丑牛</t>
+    <t>丑 牛
+🐂</t>
   </si>
   <si>
-    <t>寅虎</t>
+    <t>寅 虎
+🐅</t>
   </si>
   <si>
-    <t>卯兔</t>
+    <t>卯 兔
+🐇</t>
   </si>
   <si>
-    <t>辰龙</t>
+    <t>辰 龙
+🐉</t>
   </si>
   <si>
-    <t>巳蛇</t>
+    <t>巳 蛇
+🐍</t>
   </si>
   <si>
-    <t>午马</t>
+    <t>午 马
+🐎</t>
   </si>
   <si>
-    <t>未羊</t>
+    <t>未 羊
+🐏</t>
   </si>
   <si>
-    <t>申猴</t>
+    <t>申 猴
+🐒</t>
   </si>
   <si>
-    <t>酉鸡</t>
+    <t>酉 鸡
+🐓</t>
   </si>
   <si>
-    <t>戌狗</t>
+    <t>戌 狗
+🐕</t>
   </si>
   <si>
-    <t>亥猪</t>
+    <t>亥 猪
+🐖</t>
   </si>
 </sst>
 </file>
@@ -744,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,13 +765,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1092,7 +1110,7 @@
   <dimension ref="B2:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1177,7 +1195,7 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="3"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="4">
         <v>1996</v>
       </c>
@@ -1185,7 +1203,7 @@
         <f>D4+12</f>
         <v>29</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F12" si="0">C5+1</f>
         <v>1997</v>
@@ -1194,7 +1212,7 @@
         <f t="shared" ref="G5:G12" si="1">D5-1</f>
         <v>28</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="4">
         <f t="shared" ref="I5:I12" si="2">C5+2</f>
         <v>1998</v>
@@ -1205,7 +1223,7 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="3"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="4">
         <v>1984</v>
       </c>
@@ -1213,7 +1231,7 @@
         <f>D4+24</f>
         <v>41</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -1222,7 +1240,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="4">
         <f t="shared" si="2"/>
         <v>1986</v>
@@ -1233,7 +1251,7 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="3"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="4">
         <v>1972</v>
       </c>
@@ -1241,7 +1259,7 @@
         <f>D4+36</f>
         <v>53</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>1973</v>
@@ -1250,7 +1268,7 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="4">
         <f t="shared" si="2"/>
         <v>1974</v>
@@ -1261,7 +1279,7 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="3"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="4">
         <v>1960</v>
       </c>
@@ -1269,7 +1287,7 @@
         <f>D4+48</f>
         <v>65</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>1961</v>
@@ -1278,7 +1296,7 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
         <v>1962</v>
@@ -1289,7 +1307,7 @@
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="3"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="4">
         <v>1948</v>
       </c>
@@ -1297,7 +1315,7 @@
         <f>D4+60</f>
         <v>77</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>1949</v>
@@ -1306,7 +1324,7 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="4">
         <f t="shared" si="2"/>
         <v>1950</v>
@@ -1317,7 +1335,7 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="3"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="4">
         <v>1936</v>
       </c>
@@ -1325,7 +1343,7 @@
         <f>D4+72</f>
         <v>89</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>1937</v>
@@ -1334,7 +1352,7 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
         <v>1938</v>
@@ -1345,7 +1363,7 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="3"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="4">
         <v>1924</v>
       </c>
@@ -1353,7 +1371,7 @@
         <f>D4+84</f>
         <v>101</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>1925</v>
@@ -1362,7 +1380,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
         <v>1926</v>
@@ -1373,7 +1391,7 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="3"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="4">
         <v>1912</v>
       </c>
@@ -1381,7 +1399,7 @@
         <f>D4+96</f>
         <v>113</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>1913</v>
@@ -1390,7 +1408,7 @@
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="4">
         <f t="shared" si="2"/>
         <v>1914</v>
@@ -1404,11 +1422,11 @@
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <f>C4+3</f>
         <v>2011</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <f>D4-3</f>
         <v>14</v>
       </c>
@@ -1423,7 +1441,7 @@
         <f>D4-4</f>
         <v>13</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="4">
@@ -1436,16 +1454,16 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="3"/>
-      <c r="C14" s="5">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6">
         <f t="shared" ref="C14:C21" si="4">C5+3</f>
         <v>1999</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <f t="shared" ref="D14:D21" si="5">D5-3</f>
         <v>26</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="4">
         <f t="shared" ref="F14:F21" si="6">C5+4</f>
         <v>2000</v>
@@ -1454,27 +1472,27 @@
         <f t="shared" ref="G14:G21" si="7">D5-4</f>
         <v>25</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5">
+      <c r="H14" s="8"/>
+      <c r="I14" s="6">
         <f t="shared" ref="I14:I21" si="8">C5+5</f>
         <v>2001</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="6">
         <f t="shared" ref="J14:J21" si="9">D5-5</f>
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="3"/>
-      <c r="C15" s="5">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6">
         <f t="shared" si="4"/>
         <v>1987</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="4">
         <f t="shared" si="6"/>
         <v>1988</v>
@@ -1483,7 +1501,7 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="4">
         <f t="shared" si="8"/>
         <v>1989</v>
@@ -1494,16 +1512,16 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="3"/>
-      <c r="C16" s="5">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6">
         <f t="shared" si="4"/>
         <v>1975</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="4">
         <f t="shared" si="6"/>
         <v>1976</v>
@@ -1512,7 +1530,7 @@
         <f t="shared" si="7"/>
         <v>49</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="4">
         <f t="shared" si="8"/>
         <v>1977</v>
@@ -1523,16 +1541,16 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="3"/>
-      <c r="C17" s="5">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6">
         <f t="shared" si="4"/>
         <v>1963</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="4">
         <f t="shared" si="6"/>
         <v>1964</v>
@@ -1541,27 +1559,27 @@
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7">
+      <c r="H17" s="8"/>
+      <c r="I17" s="9">
         <f t="shared" si="8"/>
         <v>1965</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="9">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="3"/>
-      <c r="C18" s="5">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6">
         <f t="shared" si="4"/>
         <v>1951</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="4">
         <f t="shared" si="6"/>
         <v>1952</v>
@@ -1570,7 +1588,7 @@
         <f t="shared" si="7"/>
         <v>73</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="4">
         <f t="shared" si="8"/>
         <v>1953</v>
@@ -1581,16 +1599,16 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="3"/>
-      <c r="C19" s="5">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6">
         <f t="shared" si="4"/>
         <v>1939</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="4">
         <f t="shared" si="6"/>
         <v>1940</v>
@@ -1599,7 +1617,7 @@
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="4">
         <f t="shared" si="8"/>
         <v>1941</v>
@@ -1610,16 +1628,16 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="3"/>
-      <c r="C20" s="5">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6">
         <f t="shared" si="4"/>
         <v>1927</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="4">
         <f t="shared" si="6"/>
         <v>1928</v>
@@ -1628,7 +1646,7 @@
         <f t="shared" si="7"/>
         <v>97</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="4">
         <f t="shared" si="8"/>
         <v>1929</v>
@@ -1639,16 +1657,16 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="3"/>
-      <c r="C21" s="5">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6">
         <f t="shared" si="4"/>
         <v>1915</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="4">
         <f t="shared" si="6"/>
         <v>1916</v>
@@ -1657,7 +1675,7 @@
         <f t="shared" si="7"/>
         <v>109</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="4">
         <f t="shared" si="8"/>
         <v>1917</v>
@@ -1682,11 +1700,11 @@
       <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="9">
         <f>C4-5</f>
         <v>2003</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="9">
         <f>D4+5</f>
         <v>22</v>
       </c>
@@ -1703,7 +1721,7 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="3"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="4">
         <f t="shared" ref="C23:C30" si="10">C5-6</f>
         <v>1990</v>
@@ -1712,7 +1730,7 @@
         <f t="shared" ref="D23:D30" si="11">D5+6</f>
         <v>35</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="4">
         <f t="shared" ref="F23:F30" si="12">C5-5</f>
         <v>1991</v>
@@ -1721,7 +1739,7 @@
         <f t="shared" ref="G23:G30" si="13">D5+5</f>
         <v>34</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="4">
         <f t="shared" ref="I23:I30" si="14">C5-4</f>
         <v>1992</v>
@@ -1732,7 +1750,7 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="3"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
         <v>1978</v>
@@ -1741,7 +1759,7 @@
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="4">
         <f t="shared" si="12"/>
         <v>1979</v>
@@ -1750,7 +1768,7 @@
         <f t="shared" si="13"/>
         <v>46</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="4">
         <f t="shared" si="14"/>
         <v>1980</v>
@@ -1761,7 +1779,7 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="3"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
         <v>1966</v>
@@ -1770,7 +1788,7 @@
         <f t="shared" si="11"/>
         <v>59</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="4">
         <f t="shared" si="12"/>
         <v>1967</v>
@@ -1779,7 +1797,7 @@
         <f t="shared" si="13"/>
         <v>58</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="4">
         <f t="shared" si="14"/>
         <v>1968</v>
@@ -1788,10 +1806,10 @@
         <f t="shared" si="15"/>
         <v>57</v>
       </c>
-      <c r="L25" s="5"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="3"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
         <v>1954</v>
@@ -1800,7 +1818,7 @@
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="4">
         <f t="shared" si="12"/>
         <v>1955</v>
@@ -1809,7 +1827,7 @@
         <f t="shared" si="13"/>
         <v>70</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="4">
         <f t="shared" si="14"/>
         <v>1956</v>
@@ -1820,7 +1838,7 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="3"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="4">
         <f t="shared" si="10"/>
         <v>1942</v>
@@ -1829,7 +1847,7 @@
         <f t="shared" si="11"/>
         <v>83</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="4">
         <f t="shared" si="12"/>
         <v>1943</v>
@@ -1838,7 +1856,7 @@
         <f t="shared" si="13"/>
         <v>82</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="4">
         <f t="shared" si="14"/>
         <v>1944</v>
@@ -1849,7 +1867,7 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="3"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="4">
         <f t="shared" si="10"/>
         <v>1930</v>
@@ -1858,7 +1876,7 @@
         <f t="shared" si="11"/>
         <v>95</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="4">
         <f t="shared" si="12"/>
         <v>1931</v>
@@ -1867,7 +1885,7 @@
         <f t="shared" si="13"/>
         <v>94</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="4">
         <f t="shared" si="14"/>
         <v>1932</v>
@@ -1878,7 +1896,7 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="3"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="4">
         <f t="shared" si="10"/>
         <v>1918</v>
@@ -1887,7 +1905,7 @@
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="4">
         <f t="shared" si="12"/>
         <v>1919</v>
@@ -1896,7 +1914,7 @@
         <f t="shared" si="13"/>
         <v>106</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="4">
         <f t="shared" si="14"/>
         <v>1920</v>
@@ -1907,7 +1925,7 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="3"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="4">
         <f t="shared" si="10"/>
         <v>1906</v>
@@ -1916,7 +1934,7 @@
         <f t="shared" si="11"/>
         <v>119</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="4">
         <f t="shared" si="12"/>
         <v>1907</v>
@@ -1925,7 +1943,7 @@
         <f t="shared" si="13"/>
         <v>118</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="4">
         <f t="shared" si="14"/>
         <v>1908</v>
@@ -1939,11 +1957,11 @@
       <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <f>C4-3</f>
         <v>2005</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <f>D4+3</f>
         <v>20</v>
       </c>
@@ -1961,26 +1979,26 @@
       <c r="H31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="10">
         <f>C4+1</f>
         <v>2009</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="10">
         <f>D4+1</f>
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="3"/>
-      <c r="C32" s="5">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6">
         <f t="shared" ref="C32:C39" si="16">C5-3</f>
         <v>1993</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
         <f t="shared" ref="D32:D39" si="17">D5+3</f>
         <v>32</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="4">
         <f t="shared" ref="F32:F39" si="18">C5-2</f>
         <v>1994</v>
@@ -1989,27 +2007,27 @@
         <f t="shared" ref="G32:G39" si="19">D5+2</f>
         <v>31</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="8">
+      <c r="H32" s="5"/>
+      <c r="I32" s="10">
         <f t="shared" ref="I32:I39" si="20">C5+1</f>
         <v>1997</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="10">
         <f t="shared" ref="J32:J39" si="21">D5+1</f>
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="3"/>
-      <c r="C33" s="5">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6">
         <f t="shared" si="16"/>
         <v>1981</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="6">
         <f t="shared" si="17"/>
         <v>44</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="4">
         <f t="shared" si="18"/>
         <v>1982</v>
@@ -2018,7 +2036,7 @@
         <f t="shared" si="19"/>
         <v>43</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="4">
         <f t="shared" si="20"/>
         <v>1985</v>
@@ -2029,7 +2047,7 @@
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="3"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="4">
         <f t="shared" si="16"/>
         <v>1969</v>
@@ -2038,7 +2056,7 @@
         <f t="shared" si="17"/>
         <v>56</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="4">
         <f t="shared" si="18"/>
         <v>1970</v>
@@ -2047,7 +2065,7 @@
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="4">
         <f t="shared" si="20"/>
         <v>1973</v>
@@ -2058,7 +2076,7 @@
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="3"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="4">
         <f t="shared" si="16"/>
         <v>1957</v>
@@ -2067,7 +2085,7 @@
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="4">
         <f t="shared" si="18"/>
         <v>1958</v>
@@ -2076,7 +2094,7 @@
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="4">
         <f t="shared" si="20"/>
         <v>1961</v>
@@ -2087,7 +2105,7 @@
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="3"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="4">
         <f t="shared" si="16"/>
         <v>1945</v>
@@ -2096,7 +2114,7 @@
         <f t="shared" si="17"/>
         <v>80</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="4">
         <f t="shared" si="18"/>
         <v>1946</v>
@@ -2105,7 +2123,7 @@
         <f t="shared" si="19"/>
         <v>79</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="4">
         <f t="shared" si="20"/>
         <v>1949</v>
@@ -2116,7 +2134,7 @@
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="3"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="4">
         <f t="shared" si="16"/>
         <v>1933</v>
@@ -2125,7 +2143,7 @@
         <f t="shared" si="17"/>
         <v>92</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="4">
         <f t="shared" si="18"/>
         <v>1934</v>
@@ -2134,7 +2152,7 @@
         <f t="shared" si="19"/>
         <v>91</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="5"/>
       <c r="I37" s="4">
         <f t="shared" si="20"/>
         <v>1937</v>
@@ -2145,7 +2163,7 @@
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="3"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="4">
         <f t="shared" si="16"/>
         <v>1921</v>
@@ -2154,7 +2172,7 @@
         <f t="shared" si="17"/>
         <v>104</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="4">
         <f t="shared" si="18"/>
         <v>1922</v>
@@ -2163,7 +2181,7 @@
         <f t="shared" si="19"/>
         <v>103</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="4">
         <f t="shared" si="20"/>
         <v>1925</v>
@@ -2174,7 +2192,7 @@
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="3"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="4">
         <f t="shared" si="16"/>
         <v>1909</v>
@@ -2183,7 +2201,7 @@
         <f t="shared" si="17"/>
         <v>116</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="4">
         <f t="shared" si="18"/>
         <v>1910</v>
@@ -2192,7 +2210,7 @@
         <f t="shared" si="19"/>
         <v>115</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="4">
         <f t="shared" si="20"/>
         <v>1913</v>
